--- a/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brviaadministracaoxedqmstandards_edqmstandardsxbrviaadministracao.xlsx
+++ b/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brviaadministracaoxedqmstandards_edqmstandardsxbrviaadministracao.xlsx
@@ -12,17 +12,17 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="brviadeadministracaoxedqmstanda" sheetId="1" r:id="rId1"/>
-    <sheet name="edqmstandardsxbrviadeadministra" sheetId="3" r:id="rId2"/>
+    <sheet name="brviaadministracaoxedqmstandard" sheetId="1" r:id="rId1"/>
+    <sheet name="edqmstandardsxbrviaadministraca" sheetId="3" r:id="rId2"/>
     <sheet name="Opções" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">brviadeadministracaoxedqmstanda!$A$3:$H$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">edqmstandardsxbrviadeadministra!$A$3:$H$3</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">brviadeadministracaoxedqmstanda!$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">brviaadministracaoxedqmstandard!$A$3:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">edqmstandardsxbrviaadministraca!$A$3:$H$3</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">brviaadministracaoxedqmstandard!$G$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -472,7 +472,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +575,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brviaadministracaoxedqmstandards_edqmstandardsxbrviaadministracao.xlsx
+++ b/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brviaadministracaoxedqmstandards_edqmstandardsxbrviaadministracao.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="brviaadministracaoxedqmstandard" sheetId="1" r:id="rId1"/>
@@ -5970,13 +5970,13 @@
     <t>1..1</t>
   </si>
   <si>
-    <t>Ministério da Saúde do Brasil (https://oclweb2.gointerop.com/#/orgs/MS/collections/PNIViaAdministracao/) x HL7 Internacional (http://hl7.org/fhir/uv/ips/ValueSet/medicine-route-of-administration)</t>
-  </si>
-  <si>
     <t>Via de Administração do Imunobiológico x Medicine Route of Administration - IPS</t>
   </si>
   <si>
-    <t xml:space="preserve">HL7 Internacional (http://hl7.org/fhir/uv/ips/ValueSet/medicine-route-of-administration) x Ministério da Saúde do Brasil (https://oclweb2.gointerop.com/#/orgs/MS/collections/PNIViaAdministracao/) </t>
+    <t>Ministério da Saúde do Brasil (http://www.saude.gov.br/fhir/r4/ValueSet/BRViaAdministracao-1.0) x HL7 Internacional (http://hl7.org/fhir/uv/ips/ValueSet/medicine-route-of-administration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HL7 Internacional (http://hl7.org/fhir/uv/ips/ValueSet/medicine-route-of-administration) x Ministério da Saúde do Brasil (http://www.saude.gov.br/fhir/r4/ValueSet/BRViaAdministracao-1.0) </t>
   </si>
 </sst>
 </file>
@@ -6174,6 +6174,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6181,15 +6190,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6488,8 +6488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6509,36 +6509,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>1979</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>1978</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -6771,8 +6771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L996"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6793,36 +6793,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>1980</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
